--- a/app/inventoryfiles/HP_13_22.xlsx
+++ b/app/inventoryfiles/HP_13_22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Product Details of HP Elitebook x360 1030 G2(1UX16PA#ACJ)</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>purchase</t>
+  </si>
+  <si>
+    <t>2017/09/12</t>
+  </si>
+  <si>
+    <t>Skytel</t>
+  </si>
+  <si>
+    <t>sale</t>
   </si>
 </sst>
 </file>
@@ -55,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -72,6 +81,15 @@
       <u val="none"/>
       <sz val="10"/>
       <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -95,11 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -401,10 +422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,6 +502,29 @@
       </c>
       <c r="G6" s="1">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14520</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-29040</v>
+      </c>
+      <c r="G7" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
